--- a/dtpu_configurations/only_integer16/50mhz/mxu_14x14/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_14x14/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>2.0112764835357666</v>
+        <v>1.4213714599609375</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.0077507998794317245</v>
+        <v>0.0285395048558712</v>
       </c>
     </row>
   </sheetData>
